--- a/medicine/Handicap/Maladie_de_Wolman/Maladie_de_Wolman.xlsx
+++ b/medicine/Handicap/Maladie_de_Wolman/Maladie_de_Wolman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie de Wolman, ou déficit en lipase acide lysosomale (DLAL), est une maladie lysosomale sévère du jeune enfant, résultant d’un déficit en lipase acide. Ce déficit enzymatique a comme conséquence l'accumulation de lipides neutres, en particulier esters de cholestérol, dans les cellules (en particulier leucocytes, fibroblastes, et cellules du foie) et une accélération de la synthèse endogène de cholestérol. Il correspond à une mutation du gène LIPA synthétisant la lipase acide lysosomale.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été décrite pour la première fois en 1956 par Wolman qui publie une série de cas familiaux en 61 en tant que xanthomatose familiale avec calcifications surrénaliennes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été décrite pour la première fois en 1956 par Wolman qui publie une série de cas familiaux en 61 en tant que xanthomatose familiale avec calcifications surrénaliennes.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une maladie à transmission autosomique récessive due à une mutation du gène LIPA. Elle entraîne une accumulation d'esters de cholestérol et de triglycérides. 
 </t>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premiers signes apparaissent dès la première semaine de vie et la survie n'excède guère quelques mois[2], avec une insuffisance hépatocellulaire grave.
-Une variante de cette maladie, la maladie de surcharge en esters de cholestérol, est également connue sous le terme de xanthomatose familiale primitive. Il s’agit d’une forme bénigne rare de l’adulte, beaucoup moins sévère que la maladie de Wolman et correspondant à d'autres mutations du LIPA[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers signes apparaissent dès la première semaine de vie et la survie n'excède guère quelques mois, avec une insuffisance hépatocellulaire grave.
+Une variante de cette maladie, la maladie de surcharge en esters de cholestérol, est également connue sous le terme de xanthomatose familiale primitive. Il s’agit d’une forme bénigne rare de l’adulte, beaucoup moins sévère que la maladie de Wolman et correspondant à d'autres mutations du LIPA.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'utilisation de cellules souches hématopoïétiques ne permet qu'une prolongation de la survie de quelques mois[4]. La substitution enzymatique est un traitement au long cours avec un risque important de l'efficacité du traitement, en raison de la formation d'anticorps contre la protéine recombinante. Elle peut être contrée par l'administration d'un immunosuppresseur, type rituximab, permettant de faire une greffe de cellules souches dans de meilleures conditions[5]. 
-L'association d'un régime avec substitution enzymatique, suivi d'une greffe de cellules souches permet des survies prolongées[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'utilisation de cellules souches hématopoïétiques ne permet qu'une prolongation de la survie de quelques mois. La substitution enzymatique est un traitement au long cours avec un risque important de l'efficacité du traitement, en raison de la formation d'anticorps contre la protéine recombinante. Elle peut être contrée par l'administration d'un immunosuppresseur, type rituximab, permettant de faire une greffe de cellules souches dans de meilleures conditions. 
+L'association d'un régime avec substitution enzymatique, suivi d'une greffe de cellules souches permet des survies prolongées.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Mode de transmission</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Transmission autosomique récessive
 </t>
@@ -668,7 +690,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Wolman M, Sterk VV, Gatt S, Frenkel M, Primary familial xanthomatosis with involvement and calcification of the adrenals, Pediatrics, 1961;28:742
